--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value269.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value269.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.5789741577251123</v>
+        <v>1.622051477432251</v>
       </c>
       <c r="B1">
-        <v>0.7943642295320924</v>
+        <v>1.92631459236145</v>
       </c>
       <c r="C1">
-        <v>1.368885640184261</v>
+        <v>2.046913146972656</v>
       </c>
       <c r="D1">
-        <v>3.157217527431956</v>
+        <v>2.380285978317261</v>
       </c>
       <c r="E1">
-        <v>2.624119288820058</v>
+        <v>3.188485860824585</v>
       </c>
     </row>
   </sheetData>
